--- a/biology/Médecine/Vaisseau_sanguin/Vaisseau_sanguin.xlsx
+++ b/biology/Médecine/Vaisseau_sanguin/Vaisseau_sanguin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie, les vaisseaux sanguins sont des conduits qui transportent le sang dans l'organisme. Les cinq grands types de vaisseaux sanguins sont les artères (qui transportent le sang du cœur vers les organes), les artérioles, les capillaires (qui permettent la diffusion des gaz et des nutriments entre le sang et les tissus), les veinules et les veines (qui transportent le sang des organes vers le cœur). L'ensemble de ces vaisseaux sanguins forme le système ou réseau vasculaire sanguin. Les vaisseaux lymphatiques composant le système lymphatique et les vaisseaux sanguins forment le système vasculaire qui, avec le cœur, constituent l'appareil cardiovasculaire.
 La science des vaisseaux sanguins s'appelle l'angiologie, pratiquée par des angiologues. Pour tester la résistance ou la fragilité d'un vaisseau sanguin, on a recours au test du tourniquet.
@@ -515,10 +527,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Physiologie
-Les artères sont les vaisseaux sanguins transportant le sang du cœur aux poumons et aux autres organes. Leur paroi élastique amortit les élévations de la pression.mais ils peuvent perdre leur élasticité à cause de l'abus d'alcool ou de tabac
-Histologie
-En coupe transversale, les trois couches présentes des parois des artères sont, de l'extérieur vers l'intérieur :
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les artères sont les vaisseaux sanguins transportant le sang du cœur aux poumons et aux autres organes. Leur paroi élastique amortit les élévations de la pression.mais ils peuvent perdre leur élasticité à cause de l'abus d'alcool ou de tabac
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En coupe transversale, les trois couches présentes des parois des artères sont, de l'extérieur vers l'intérieur :
 l'adventice est la couche externe de la paroi artérielle ; elle est composée de tissu conjonctif et de fibres élastiques. L'adventice contient les vasa vasorum (vaisseaux capillaires vascularisant la paroi artérielle) ainsi que des fibres nerveuses du système autonome sympathique et parasympathique. Dans les artères de gros calibre, adventice et media sont séparées par la limitante élastique externe, une couche acellulaire élastique ;
 la media est la couche moyenne de la paroi artérielle ; elle est composée de collagène et d'élastine. Dans les artères de petit et moyen calibre, elle contient les fibres musculaires lisses permettant la vasoconstriction. Comme l'intima, les cellules de la média se nourrissent par imbibition ;
 l'intima, couche interne de la paroi artérielle, est formée par l'endothélium vasculaire (mono-couche cellulaire) reposant sur une couche de tissu conjonctif. Elle est séparée de la media par la limitante élastique interne.
@@ -531,56 +583,6 @@
 Les artères musculaires contiennent en majorité des fibres musculaires lisses dans leur média et possède une limitante élastique interne et externe très visible. La tension superficielle exercée sur la membrane musculaire est constante et indépendante du rayon. Donc pour un rayon supérieur au rayon d'équilibre seule la dilatation du vaisseau permettra de compenser la pression. Pour un rayon inférieur au rayon d'équilibre il se passe le phénomène inverse, le vaisseau tend vers sa fermeture.
 Les artères musculo-élastiques contiennent à la fois des fibres musculaires capables de se contracter, et de l'élastine.
 La tension exercés sur les parois vasculaires est la somme d'une composante musculaire (dépend de la vasomotricité), et d'une composante élastique (dépend du rayon de la paroi).
-Aorte
-L'aorte est la plus large des artères systémiques. Elle quitte le cœur au niveau de l'orifice de sortie du ventricule gauche (orifice aortique). Son élasticité naturelle lui permet d'amortir les importantes élévations de pression lors de la période de contraction cardiaque (systole ventriculaire) puis le retour élastique de cette même paroi pendant la période de repos cardiaque (diastole ventriculaire) permet de conserver dans le réseau artériel une pression minimale (ou pression diastolique).
-L'aorte se « ramifie » en : tronc brachio-céphalique qui donnera une artère carotide commune droite et une artère subclavière droite, artère carotide commune gauche, artère subclavière gauche, artères intercostales, artère cœliaque (tronc cœliaque : artère gastrique gauche, artère hépatique commune et artère splénique), artère mésentérique supérieure, artères rénales droite et gauche, artère mésentérique inférieure et artères iliaques communes.
-Histologie
-Il est à noter que les artères élastiques comme l'aorte ont comme point commun un intima d'aspect dentelé. Les noyaux des cellules de cette couche au contact du flux sanguin sont quasiment dans la lumière du vaisseau. Une autre particularité des cellules de la média des artères élastiques, est que ses cellules ont un noyau en « tire-bouchon ».
-Concernant intimement l'aorte, la limitante élastique interne donne un aspect en zigzag très caractéristique. De plus, l'adventice de l'aorte est constituée d'une cinquantaine de lames élastiques parallèles, ce qui aide à amener de gros volumes sanguins. Enfin dans cet adventice, ces lames élastiques sont sous-tendues par des cellules musculaires lisses particulières : les cellules rameuses.
-Artères pulmonaires
-L'artère pulmonaire est issue du ventricule droit et, par ses branches, délivre un sang pauvre en oxygène aux deux poumons. Sa paroi est considérablement plus fine et fragile que celle de l'aorte.
-Artérioles
-Physiologie
-Les artérioles sont les artères de petit calibre (diamètre de moins de 0,3 mm) amenant le sang dans les capillaires.
-Histologie
-Leur paroi est innervée par le système nerveux sympathique et peut ainsi se contracter, entraînant à la fois une réduction du flux sanguin tissulaire et une augmentation de la résistance à l'écoulement sanguin. Cette augmentation des résistances dites périphériques induit directement une élévation de la pression artérielle.
-Les plus grosses artérioles sont faites des trois couches habituelles, les plus petites n'ont qu'une seule couche endothéliale formant l'intima simplement entourée par des cellules musculaires lisses organisées en spirale discontinue. Si l'on s'aperçoit qu'une artériole est faite de trois couches de cellules musculaires, alors il s'agit d'une artère.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Capillaires</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Physiologie
-Les capillaires sont les plus petits vaisseaux sanguins et le siège des échanges entre le milieu vasculaire et les organes qu'ils traversent. Les capillaires communiquent entre eux et forment un réseau d'anastomoses. Ces réseaux sont en constante réorganisation.
-La vitesse très faible d'écoulement du sang dans les capillaires assure un temps suffisant à la réalisation des échanges.
-Histologie
-Bordés par une simple rangée de cellules endothéliales et une lame basale, ils assurent les échanges entre tissu sanguin et tissus périphériques. En effet, leur paroi est perméable à l'eau, aux électrolytes, aux gaz et aux nutriments (acides aminés, glucose, lipides, vitamines…), ce qui permet la nutrition des cellules et d'autre part l'évacuation des déchets du métabolisme cellulaire.
-Leur caractère contractile participe à la vasomotricité périphérique.
 </t>
         </is>
       </c>
@@ -606,82 +608,437 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aorte</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aorte est la plus large des artères systémiques. Elle quitte le cœur au niveau de l'orifice de sortie du ventricule gauche (orifice aortique). Son élasticité naturelle lui permet d'amortir les importantes élévations de pression lors de la période de contraction cardiaque (systole ventriculaire) puis le retour élastique de cette même paroi pendant la période de repos cardiaque (diastole ventriculaire) permet de conserver dans le réseau artériel une pression minimale (ou pression diastolique).
+L'aorte se « ramifie » en : tronc brachio-céphalique qui donnera une artère carotide commune droite et une artère subclavière droite, artère carotide commune gauche, artère subclavière gauche, artères intercostales, artère cœliaque (tronc cœliaque : artère gastrique gauche, artère hépatique commune et artère splénique), artère mésentérique supérieure, artères rénales droite et gauche, artère mésentérique inférieure et artères iliaques communes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Aorte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est à noter que les artères élastiques comme l'aorte ont comme point commun un intima d'aspect dentelé. Les noyaux des cellules de cette couche au contact du flux sanguin sont quasiment dans la lumière du vaisseau. Une autre particularité des cellules de la média des artères élastiques, est que ses cellules ont un noyau en « tire-bouchon ».
+Concernant intimement l'aorte, la limitante élastique interne donne un aspect en zigzag très caractéristique. De plus, l'adventice de l'aorte est constituée d'une cinquantaine de lames élastiques parallèles, ce qui aide à amener de gros volumes sanguins. Enfin dans cet adventice, ces lames élastiques sont sous-tendues par des cellules musculaires lisses particulières : les cellules rameuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Artères pulmonaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'artère pulmonaire est issue du ventricule droit et, par ses branches, délivre un sang pauvre en oxygène aux deux poumons. Sa paroi est considérablement plus fine et fragile que celle de l'aorte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Artérioles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les artérioles sont les artères de petit calibre (diamètre de moins de 0,3 mm) amenant le sang dans les capillaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Artères</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Artérioles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Leur paroi est innervée par le système nerveux sympathique et peut ainsi se contracter, entraînant à la fois une réduction du flux sanguin tissulaire et une augmentation de la résistance à l'écoulement sanguin. Cette augmentation des résistances dites périphériques induit directement une élévation de la pression artérielle.
+Les plus grosses artérioles sont faites des trois couches habituelles, les plus petites n'ont qu'une seule couche endothéliale formant l'intima simplement entourée par des cellules musculaires lisses organisées en spirale discontinue. Si l'on s'aperçoit qu'une artériole est faite de trois couches de cellules musculaires, alors il s'agit d'une artère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Capillaires</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les capillaires sont les plus petits vaisseaux sanguins et le siège des échanges entre le milieu vasculaire et les organes qu'ils traversent. Les capillaires communiquent entre eux et forment un réseau d'anastomoses. Ces réseaux sont en constante réorganisation.
+La vitesse très faible d'écoulement du sang dans les capillaires assure un temps suffisant à la réalisation des échanges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Capillaires</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bordés par une simple rangée de cellules endothéliales et une lame basale, ils assurent les échanges entre tissu sanguin et tissus périphériques. En effet, leur paroi est perméable à l'eau, aux électrolytes, aux gaz et aux nutriments (acides aminés, glucose, lipides, vitamines…), ce qui permet la nutrition des cellules et d'autre part l'évacuation des déchets du métabolisme cellulaire.
+Leur caractère contractile participe à la vasomotricité périphérique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Veines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Physiologie
-Les veines sont les vaisseaux drainant le sang depuis les organes jusqu'au cœur. Chez l'humain, les veines des membres inférieurs présentent des valvules anti-reflux facilitant la progression à sens unique du sang.
-Histologie
-Histologiquement, les veines ont une structure proche de celle des artères.
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Physiologie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veines sont les vaisseaux drainant le sang depuis les organes jusqu'au cœur. Chez l'humain, les veines des membres inférieurs présentent des valvules anti-reflux facilitant la progression à sens unique du sang.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Veines</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Histologie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Histologiquement, les veines ont une structure proche de celle des artères.
 En coupe transversale, les veines présentent de l'extérieur vers l'intérieur :
 l'adventice est la couche externe de la paroi artérielle ; elle est composée de tissu conjonctif et de fibres élastiques. L'adventice contient les vasa vasorum (vaisseaux capillaires vascularisant la paroi artérielle) ainsi que des fibres nerveuses du système autonome sympathique et parasympathique. Contrairement aux artères, il n'existe pas de limitante élastique externe ;
 la media est la couche moyenne de la paroi artérielle ; elle est composée de collagène et d'élastine. Dans les veines de petit et moyen calibre, elle contient les fibres musculaires lisses permettant la vasoconstriction ;
 l'intima, couche interne de la paroi artérielle, est une couche formée par l'endothélium vasculaire (mono-couche cellulaire) reposant sur une couche de tissu conjonctif. Elle est séparée de la media par la limitante élastique interne.
 En proportion, la lumière d'une veine est notablement plus grande que pour une artère du même calibre et donc son calibre moindre.
-Veinules
-Les veinules sont les veines de petit calibre collectant le sang à l'issue du système capillaire.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Veines</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Veinules</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les veinules sont les veines de petit calibre collectant le sang à l'issue du système capillaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Appareil cardiovasculaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appareil cardiovasculaire assure la circulation du sang entre tous les organes. Il est composé du cœur, pompe qui fait circuler le sang à l'intérieur du réseau vasculaire sanguin qui comporte les artères, les artérioles, les capillaires, les veinules et les veines. La longueur cumulée des vaisseaux sanguins est de 100 000 kilomètres environ[1].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appareil cardiovasculaire assure la circulation du sang entre tous les organes. Il est composé du cœur, pompe qui fait circuler le sang à l'intérieur du réseau vasculaire sanguin qui comporte les artères, les artérioles, les capillaires, les veinules et les veines. La longueur cumulée des vaisseaux sanguins est de 100 000 kilomètres environ.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Vasomotricité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
         <is>
           <t xml:space="preserve">Des sphincters (muscles lisses permettent de réguler le calibre d'un vaisseau) permettent de réguler l'apport sanguin d'un organe donné selon son activité (effort, digestion, sommeil…), la position du corps (assis, couché, debout…). Lorsque les muscles sont relâchés, on parle de vasodilatation ; la vasodilatation facilite l'irrigation de l'organe, mais diminue la pression du sang. Lorsque les muscles sont contractés, on parle de vasoconstriction.
 Ces variations de calibre artériel sont régulées par le système nerveux autonome, une stimulation sympathique entraîne une constriction alors que le relâchement de ce tonus entraîne une dilatation.
@@ -689,40 +1046,113 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Pathologie vasculaire systémique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Artérielle
-Athérosclérose : remaniement de l'intima des artères systémiques de gros et moyen calibre par accumulation segmentaire de lipides, glucides complexes, sang et produits sanguins, tissus adipeux, dépôts calcaires et autres minéraux.
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Artérielle</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Athérosclérose : remaniement de l'intima des artères systémiques de gros et moyen calibre par accumulation segmentaire de lipides, glucides complexes, sang et produits sanguins, tissus adipeux, dépôts calcaires et autres minéraux.
 Vascularites : groupe de maladies impliquant l'inflammation des parois des vaisseaux sanguins de gros et moyen calibre, souvent d'origine auto-immune (maladie de Horton, maladie de Kawasaki…).
-Anévrysmes : dilatation localisée de la paroi d'une artère aboutissant à la formation d'une poche de taille variable.
-Veineuse
-Insuffisance veineuse
-Capillaire
-Angiomes : par anastomose trop précoce entre artérioles et veinules (angiome plan, Syndrome de Sturge-Weber, Angiome caverneux…).</t>
+Anévrysmes : dilatation localisée de la paroi d'une artère aboutissant à la formation d'une poche de taille variable.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Pathologie vasculaire systémique</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Veineuse</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Insuffisance veineuse</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vaisseau_sanguin</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Pathologie vasculaire systémique</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Capillaire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Angiomes : par anastomose trop précoce entre artérioles et veinules (angiome plan, Syndrome de Sturge-Weber, Angiome caverneux…).</t>
         </is>
       </c>
     </row>
